--- a/infrastructure_testing_files/current/Q4DemoSS2Metadata.xlsx
+++ b/infrastructure_testing_files/current/Q4DemoSS2Metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hewgreen/Google Drive/metadata-schema/examples/spreadsheets/current/filled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hewgreen/Google Drive/metadata-schema/infrastructure_testing_files/current/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{019D07FD-5272-F040-8C2E-F09C2A7369B7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AD3E1F91-AD39-EE49-BA77-CA4A5FFD8AEC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="27480" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16240" yWindow="460" windowWidth="34960" windowHeight="19740" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -20,22 +20,20 @@
     <sheet name="Specimen from organism" sheetId="5" r:id="rId5"/>
     <sheet name="Cell suspension" sheetId="6" r:id="rId6"/>
     <sheet name="Sequence files" sheetId="7" r:id="rId7"/>
-    <sheet name="Organoid" sheetId="8" r:id="rId8"/>
-    <sheet name="Cell line" sheetId="9" r:id="rId9"/>
-    <sheet name="Collection protocol" sheetId="10" r:id="rId10"/>
-    <sheet name="Dissociation protocol" sheetId="11" r:id="rId11"/>
-    <sheet name="Enrichment protocol" sheetId="12" r:id="rId12"/>
-    <sheet name="Library preparation protocol" sheetId="13" r:id="rId13"/>
-    <sheet name="Sequencing protocol" sheetId="14" r:id="rId14"/>
-    <sheet name="Imaging protocol" sheetId="15" r:id="rId15"/>
-    <sheet name="Schemas" sheetId="16" r:id="rId16"/>
+    <sheet name="Collection protocol" sheetId="10" r:id="rId8"/>
+    <sheet name="Dissociation protocol" sheetId="11" r:id="rId9"/>
+    <sheet name="Enrichment protocol" sheetId="12" r:id="rId10"/>
+    <sheet name="Library preparation protocol" sheetId="13" r:id="rId11"/>
+    <sheet name="Sequencing protocol" sheetId="14" r:id="rId12"/>
+    <sheet name="Imaging protocol" sheetId="15" r:id="rId13"/>
+    <sheet name="Schemas" sheetId="16" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="594">
   <si>
     <t>A unique label for the project.</t>
   </si>
@@ -1075,279 +1073,9 @@
     <t>sequencing_protocol.protocol_core.protocol_id</t>
   </si>
   <si>
-    <t>organoid.biomaterial_core.biomaterial_id</t>
-  </si>
-  <si>
-    <t>organoid.biomaterial_core.biomaterial_name</t>
-  </si>
-  <si>
-    <t>organoid.biomaterial_core.biomaterial_description</t>
-  </si>
-  <si>
-    <t>organoid.biomaterial_core.ncbi_taxon_id</t>
-  </si>
-  <si>
-    <t>organoid.biomaterial_core.genotype</t>
-  </si>
-  <si>
-    <t>organoid.biomaterial_core.karyotype</t>
-  </si>
-  <si>
-    <t>organoid.biomaterial_core.supplementary_files</t>
-  </si>
-  <si>
-    <t>organoid.biomaterial_core.biosd_biomaterial</t>
-  </si>
-  <si>
-    <t>organoid.biomaterial_core.insdc_biomaterial</t>
-  </si>
-  <si>
-    <t>organoid.cell_morphology.cell_morphology</t>
-  </si>
-  <si>
-    <t>organoid.cell_morphology.cell_size</t>
-  </si>
-  <si>
-    <t>organoid.cell_morphology.cell_size_unit.text</t>
-  </si>
-  <si>
-    <t>organoid.cell_morphology.cell_size_unit.ontology</t>
-  </si>
-  <si>
-    <t>organoid.cell_morphology.percent_cell_viability.user_friendly</t>
-  </si>
-  <si>
-    <t>organoid.cell_morphology.percent_cell_viability</t>
-  </si>
-  <si>
-    <t>organoid.cell_morphology.cell_viability_method</t>
-  </si>
-  <si>
-    <t>organoid.cell_morphology.cell_viability_result.user_friendly</t>
-  </si>
-  <si>
-    <t>organoid.cell_morphology.cell_viability_result</t>
-  </si>
-  <si>
-    <t>organoid.cell_morphology.percent_necrosis</t>
-  </si>
-  <si>
-    <t>organoid.growth_conditions.passage_number</t>
-  </si>
-  <si>
-    <t>organoid.growth_conditions.growth_medium</t>
-  </si>
-  <si>
-    <t>organoid.growth_conditions.mycoplasma_testing_method</t>
-  </si>
-  <si>
-    <t>organoid.growth_conditions.mycoplasma_testing_results</t>
-  </si>
-  <si>
-    <t>organoid.growth_conditions.drug_treatment</t>
-  </si>
-  <si>
-    <t>organoid.genus_species.text</t>
-  </si>
-  <si>
-    <t>organoid.genus_species.ontology</t>
-  </si>
-  <si>
-    <t>organoid.model_for_organ.text</t>
-  </si>
-  <si>
-    <t>organoid.model_for_organ.ontology</t>
-  </si>
-  <si>
-    <t>Age of the organoid.</t>
-  </si>
-  <si>
-    <t>Organoid age</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>organoid.organoid_age</t>
-  </si>
-  <si>
-    <t>organoid.organoid_age_unit.text</t>
-  </si>
-  <si>
-    <t>organoid.organoid_age_unit.ontology</t>
-  </si>
-  <si>
-    <t>The type of organoid. Must be one of primary, immortalized, stem cell-derived, or synthetic.</t>
-  </si>
-  <si>
-    <t>Organoid type</t>
-  </si>
-  <si>
-    <t>organoid.organoid_type</t>
-  </si>
-  <si>
-    <t>cell_line.biomaterial_core.biomaterial_id</t>
-  </si>
-  <si>
-    <t>cell_line.biomaterial_core.biomaterial_name</t>
-  </si>
-  <si>
-    <t>cell_line.biomaterial_core.biomaterial_description</t>
-  </si>
-  <si>
-    <t>cell_line.biomaterial_core.ncbi_taxon_id</t>
-  </si>
-  <si>
-    <t>cell_line.biomaterial_core.genotype</t>
-  </si>
-  <si>
-    <t>cell_line.biomaterial_core.karyotype</t>
-  </si>
-  <si>
-    <t>cell_line.biomaterial_core.supplementary_files</t>
-  </si>
-  <si>
-    <t>cell_line.biomaterial_core.biosd_biomaterial</t>
-  </si>
-  <si>
-    <t>cell_line.biomaterial_core.insdc_biomaterial</t>
-  </si>
-  <si>
-    <t>cell_line.supplier.user_friendly</t>
-  </si>
-  <si>
-    <t>cell_line.supplier</t>
-  </si>
-  <si>
-    <t>The supplier catalogue number for the cell line.</t>
-  </si>
-  <si>
     <t>Catalog number</t>
   </si>
   <si>
-    <t>cell_line.catalog_number</t>
-  </si>
-  <si>
-    <t>cell_line.lot_number.user_friendly</t>
-  </si>
-  <si>
-    <t>cell_line.lot_number</t>
-  </si>
-  <si>
-    <t>The supplier catalogue URL for the cell line.</t>
-  </si>
-  <si>
-    <t>Catalog URL</t>
-  </si>
-  <si>
-    <t>cell_line.catalog_url</t>
-  </si>
-  <si>
-    <t>The name of a cell cycle of the cells in the specimen.</t>
-  </si>
-  <si>
-    <t>cell_line.cell_cycle.text</t>
-  </si>
-  <si>
-    <t>cell_line.cell_cycle.ontology</t>
-  </si>
-  <si>
-    <t>The type of cell line. Must be one of primary, immortalized, stem cell-derived, or synthetic.</t>
-  </si>
-  <si>
-    <t>Cell line type</t>
-  </si>
-  <si>
-    <t>cell_line.cell_line_type</t>
-  </si>
-  <si>
-    <t>cell_line.cell_morphology.cell_morphology</t>
-  </si>
-  <si>
-    <t>cell_line.cell_morphology.cell_size</t>
-  </si>
-  <si>
-    <t>cell_line.cell_morphology.cell_size_unit.text</t>
-  </si>
-  <si>
-    <t>cell_line.cell_morphology.cell_size_unit.ontology</t>
-  </si>
-  <si>
-    <t>cell_line.cell_morphology.percent_cell_viability.user_friendly</t>
-  </si>
-  <si>
-    <t>cell_line.cell_morphology.percent_cell_viability</t>
-  </si>
-  <si>
-    <t>cell_line.cell_morphology.cell_viability_method</t>
-  </si>
-  <si>
-    <t>cell_line.cell_morphology.cell_viability_result.user_friendly</t>
-  </si>
-  <si>
-    <t>cell_line.cell_morphology.cell_viability_result</t>
-  </si>
-  <si>
-    <t>cell_line.cell_morphology.percent_necrosis</t>
-  </si>
-  <si>
-    <t>cell_line.growth_conditions.passage_number</t>
-  </si>
-  <si>
-    <t>cell_line.growth_conditions.growth_medium</t>
-  </si>
-  <si>
-    <t>cell_line.growth_conditions.mycoplasma_testing_method</t>
-  </si>
-  <si>
-    <t>cell_line.growth_conditions.mycoplasma_testing_results</t>
-  </si>
-  <si>
-    <t>cell_line.growth_conditions.drug_treatment</t>
-  </si>
-  <si>
-    <t>cell_line.cell_type.text</t>
-  </si>
-  <si>
-    <t>cell_line.cell_type.ontology</t>
-  </si>
-  <si>
-    <t>When the cell line was established, in date-time format. yyyy-mm-ddThh:mm:ssZ.</t>
-  </si>
-  <si>
-    <t>Date established</t>
-  </si>
-  <si>
-    <t>cell_line.date_established</t>
-  </si>
-  <si>
-    <t>cell_line.disease.text</t>
-  </si>
-  <si>
-    <t>cell_line.disease.ontology</t>
-  </si>
-  <si>
-    <t>cell_line.genus_species.text</t>
-  </si>
-  <si>
-    <t>cell_line.genus_species.ontology</t>
-  </si>
-  <si>
-    <t>cell_line.publications.authors</t>
-  </si>
-  <si>
-    <t>cell_line.publications.publication_title</t>
-  </si>
-  <si>
-    <t>cell_line.publications.doi</t>
-  </si>
-  <si>
-    <t>cell_line.publications.pmid</t>
-  </si>
-  <si>
-    <t>cell_line.publications.publication_url</t>
-  </si>
-  <si>
     <t>A short, descriptive name for the protocol that need not be unique.</t>
   </si>
   <si>
@@ -2084,6 +1812,9 @@
   </si>
   <si>
     <t>single cell sequencing process</t>
+  </si>
+  <si>
+    <t>male</t>
   </si>
 </sst>
 </file>
@@ -2524,7 +2255,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2638,13 +2369,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>656</v>
+        <v>566</v>
       </c>
       <c r="B6" t="s">
-        <v>657</v>
+        <v>567</v>
       </c>
       <c r="C6" t="s">
-        <v>658</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -2653,390 +2384,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:N5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="42.6640625" customWidth="1"/>
-    <col min="8" max="8" width="46.6640625" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="62.6640625" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="165" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D3" t="s">
-        <v>445</v>
-      </c>
-      <c r="E3" t="s">
-        <v>449</v>
-      </c>
-      <c r="I3" t="s">
-        <v>459</v>
-      </c>
-      <c r="J3" t="s">
-        <v>462</v>
-      </c>
-      <c r="K3" t="s">
-        <v>466</v>
-      </c>
-      <c r="M3" t="s">
-        <v>472</v>
-      </c>
-      <c r="N3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>247</v>
-      </c>
-      <c r="B4" t="s">
-        <v>439</v>
-      </c>
-      <c r="C4" t="s">
-        <v>442</v>
-      </c>
-      <c r="D4" t="s">
-        <v>446</v>
-      </c>
-      <c r="E4" t="s">
-        <v>450</v>
-      </c>
-      <c r="F4" t="s">
-        <v>453</v>
-      </c>
-      <c r="G4" t="s">
-        <v>455</v>
-      </c>
-      <c r="H4" t="s">
-        <v>456</v>
-      </c>
-      <c r="I4" t="s">
-        <v>460</v>
-      </c>
-      <c r="J4" t="s">
-        <v>463</v>
-      </c>
-      <c r="K4" t="s">
-        <v>467</v>
-      </c>
-      <c r="L4" t="s">
-        <v>469</v>
-      </c>
-      <c r="M4" t="s">
-        <v>473</v>
-      </c>
-      <c r="N4" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:O5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="46.6640625" customWidth="1"/>
-    <col min="8" max="8" width="50.6640625" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="64.6640625" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="165" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D3" t="s">
-        <v>445</v>
-      </c>
-      <c r="E3" t="s">
-        <v>449</v>
-      </c>
-      <c r="J3" t="s">
-        <v>459</v>
-      </c>
-      <c r="K3" t="s">
-        <v>462</v>
-      </c>
-      <c r="L3" t="s">
-        <v>466</v>
-      </c>
-      <c r="N3" t="s">
-        <v>472</v>
-      </c>
-      <c r="O3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>304</v>
-      </c>
-      <c r="B4" t="s">
-        <v>478</v>
-      </c>
-      <c r="C4" t="s">
-        <v>479</v>
-      </c>
-      <c r="D4" t="s">
-        <v>480</v>
-      </c>
-      <c r="E4" t="s">
-        <v>481</v>
-      </c>
-      <c r="F4" t="s">
-        <v>482</v>
-      </c>
-      <c r="G4" t="s">
-        <v>483</v>
-      </c>
-      <c r="H4" t="s">
-        <v>484</v>
-      </c>
-      <c r="I4" t="s">
-        <v>487</v>
-      </c>
-      <c r="J4" t="s">
-        <v>488</v>
-      </c>
-      <c r="K4" t="s">
-        <v>489</v>
-      </c>
-      <c r="L4" t="s">
-        <v>490</v>
-      </c>
-      <c r="M4" t="s">
-        <v>492</v>
-      </c>
-      <c r="N4" t="s">
-        <v>493</v>
-      </c>
-      <c r="O4" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
@@ -3063,34 +2410,34 @@
         <v>245</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>437</v>
+        <v>347</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>440</v>
+        <v>350</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>443</v>
+        <v>353</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>447</v>
+        <v>357</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>451</v>
+        <v>361</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>454</v>
+        <v>364</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>100</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>502</v>
+        <v>412</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>506</v>
+        <v>416</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>509</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -3098,45 +2445,45 @@
         <v>246</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>438</v>
+        <v>348</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>441</v>
+        <v>351</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>444</v>
+        <v>354</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>448</v>
+        <v>358</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>452</v>
+        <v>362</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>500</v>
+        <v>410</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>501</v>
+        <v>411</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>503</v>
+        <v>413</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>507</v>
+        <v>417</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>510</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>445</v>
+        <v>355</v>
       </c>
       <c r="E3" t="s">
-        <v>449</v>
+        <v>359</v>
       </c>
       <c r="I3" t="s">
-        <v>504</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -3144,34 +2491,34 @@
         <v>248</v>
       </c>
       <c r="B4" t="s">
-        <v>495</v>
+        <v>405</v>
       </c>
       <c r="C4" t="s">
-        <v>496</v>
+        <v>406</v>
       </c>
       <c r="D4" t="s">
-        <v>497</v>
+        <v>407</v>
       </c>
       <c r="E4" t="s">
-        <v>498</v>
+        <v>408</v>
       </c>
       <c r="F4" t="s">
-        <v>499</v>
+        <v>409</v>
       </c>
       <c r="G4" t="s">
-        <v>500</v>
+        <v>410</v>
       </c>
       <c r="H4" t="s">
-        <v>501</v>
+        <v>411</v>
       </c>
       <c r="I4" t="s">
-        <v>505</v>
+        <v>415</v>
       </c>
       <c r="J4" t="s">
-        <v>508</v>
+        <v>418</v>
       </c>
       <c r="K4" t="s">
-        <v>511</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -3181,10 +2528,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>674</v>
+        <v>584</v>
       </c>
       <c r="G6" t="s">
-        <v>675</v>
+        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -3192,11 +2539,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:AR6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
@@ -3250,124 +2597,124 @@
         <v>245</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>437</v>
+        <v>347</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>440</v>
+        <v>350</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>443</v>
+        <v>353</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>447</v>
+        <v>357</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>451</v>
+        <v>361</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>517</v>
+        <v>427</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>523</v>
+        <v>433</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>526</v>
+        <v>436</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>529</v>
+        <v>439</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>100</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>532</v>
+        <v>442</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>100</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>457</v>
+        <v>367</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>461</v>
+        <v>371</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>464</v>
+        <v>374</v>
       </c>
       <c r="R1" s="1"/>
       <c r="S1" s="1" t="s">
-        <v>470</v>
+        <v>380</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>474</v>
+        <v>384</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>457</v>
+        <v>367</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>461</v>
+        <v>371</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>464</v>
+        <v>374</v>
       </c>
       <c r="X1" s="1"/>
       <c r="Y1" s="1" t="s">
-        <v>470</v>
+        <v>380</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>474</v>
+        <v>384</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>549</v>
+        <v>459</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>553</v>
+        <v>463</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>556</v>
+        <v>466</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>457</v>
+        <v>367</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>461</v>
+        <v>371</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>464</v>
+        <v>374</v>
       </c>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1" t="s">
-        <v>470</v>
+        <v>380</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>474</v>
+        <v>384</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>567</v>
+        <v>477</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>517</v>
+        <v>427</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>523</v>
+        <v>433</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>526</v>
+        <v>436</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>574</v>
+        <v>484</v>
       </c>
       <c r="AP1" s="1" t="s">
         <v>100</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>574</v>
+        <v>484</v>
       </c>
       <c r="AR1" s="1" t="s">
         <v>100</v>
@@ -3378,192 +2725,192 @@
         <v>246</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>438</v>
+        <v>348</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="M2" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="O2" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>538</v>
-      </c>
       <c r="S2" s="3" t="s">
-        <v>471</v>
+        <v>381</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>475</v>
+        <v>385</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>458</v>
+        <v>368</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>395</v>
+        <v>346</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>465</v>
+        <v>375</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>545</v>
+        <v>455</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>471</v>
+        <v>381</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>475</v>
+        <v>385</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>550</v>
+        <v>460</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>554</v>
+        <v>464</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>557</v>
+        <v>467</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>458</v>
+        <v>368</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>395</v>
+        <v>346</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>465</v>
+        <v>375</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>563</v>
+        <v>473</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>471</v>
+        <v>381</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>475</v>
+        <v>385</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>568</v>
+        <v>478</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>518</v>
+        <v>428</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>521</v>
+        <v>431</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>524</v>
+        <v>434</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>527</v>
+        <v>437</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>575</v>
+        <v>485</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>576</v>
+        <v>486</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>577</v>
+        <v>487</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>578</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>445</v>
+        <v>355</v>
       </c>
       <c r="E3" t="s">
-        <v>449</v>
+        <v>359</v>
       </c>
       <c r="O3" t="s">
-        <v>459</v>
+        <v>369</v>
       </c>
       <c r="P3" t="s">
-        <v>462</v>
+        <v>372</v>
       </c>
       <c r="Q3" t="s">
-        <v>466</v>
+        <v>376</v>
       </c>
       <c r="S3" t="s">
-        <v>472</v>
+        <v>382</v>
       </c>
       <c r="T3" t="s">
-        <v>476</v>
+        <v>386</v>
       </c>
       <c r="U3" t="s">
-        <v>459</v>
+        <v>369</v>
       </c>
       <c r="V3" t="s">
-        <v>462</v>
+        <v>372</v>
       </c>
       <c r="W3" t="s">
-        <v>466</v>
+        <v>376</v>
       </c>
       <c r="Y3" t="s">
-        <v>472</v>
+        <v>382</v>
       </c>
       <c r="Z3" t="s">
-        <v>476</v>
+        <v>386</v>
       </c>
       <c r="AA3" t="s">
-        <v>551</v>
+        <v>461</v>
       </c>
       <c r="AC3" t="s">
-        <v>558</v>
+        <v>468</v>
       </c>
       <c r="AD3" t="s">
-        <v>459</v>
+        <v>369</v>
       </c>
       <c r="AE3" t="s">
-        <v>462</v>
+        <v>372</v>
       </c>
       <c r="AF3" t="s">
-        <v>466</v>
+        <v>376</v>
       </c>
       <c r="AH3" t="s">
-        <v>472</v>
+        <v>382</v>
       </c>
       <c r="AI3" t="s">
-        <v>476</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.2">
@@ -3571,133 +2918,133 @@
         <v>344</v>
       </c>
       <c r="B4" t="s">
-        <v>512</v>
+        <v>422</v>
       </c>
       <c r="C4" t="s">
-        <v>513</v>
+        <v>423</v>
       </c>
       <c r="D4" t="s">
-        <v>514</v>
+        <v>424</v>
       </c>
       <c r="E4" t="s">
-        <v>515</v>
+        <v>425</v>
       </c>
       <c r="F4" t="s">
-        <v>516</v>
+        <v>426</v>
       </c>
       <c r="G4" t="s">
-        <v>519</v>
+        <v>429</v>
       </c>
       <c r="H4" t="s">
-        <v>522</v>
+        <v>432</v>
       </c>
       <c r="I4" t="s">
-        <v>525</v>
+        <v>435</v>
       </c>
       <c r="J4" t="s">
-        <v>528</v>
+        <v>438</v>
       </c>
       <c r="K4" t="s">
-        <v>530</v>
+        <v>440</v>
       </c>
       <c r="L4" t="s">
-        <v>531</v>
+        <v>441</v>
       </c>
       <c r="M4" t="s">
-        <v>533</v>
+        <v>443</v>
       </c>
       <c r="N4" t="s">
-        <v>534</v>
+        <v>444</v>
       </c>
       <c r="O4" t="s">
-        <v>535</v>
+        <v>445</v>
       </c>
       <c r="P4" t="s">
-        <v>536</v>
+        <v>446</v>
       </c>
       <c r="Q4" t="s">
-        <v>537</v>
+        <v>447</v>
       </c>
       <c r="R4" t="s">
-        <v>539</v>
+        <v>449</v>
       </c>
       <c r="S4" t="s">
-        <v>540</v>
+        <v>450</v>
       </c>
       <c r="T4" t="s">
-        <v>541</v>
+        <v>451</v>
       </c>
       <c r="U4" t="s">
-        <v>542</v>
+        <v>452</v>
       </c>
       <c r="V4" t="s">
-        <v>543</v>
+        <v>453</v>
       </c>
       <c r="W4" t="s">
-        <v>544</v>
+        <v>454</v>
       </c>
       <c r="X4" t="s">
-        <v>546</v>
+        <v>456</v>
       </c>
       <c r="Y4" t="s">
-        <v>547</v>
+        <v>457</v>
       </c>
       <c r="Z4" t="s">
-        <v>548</v>
+        <v>458</v>
       </c>
       <c r="AA4" t="s">
-        <v>552</v>
+        <v>462</v>
       </c>
       <c r="AB4" t="s">
-        <v>555</v>
+        <v>465</v>
       </c>
       <c r="AC4" t="s">
-        <v>559</v>
+        <v>469</v>
       </c>
       <c r="AD4" t="s">
-        <v>560</v>
+        <v>470</v>
       </c>
       <c r="AE4" t="s">
-        <v>561</v>
+        <v>471</v>
       </c>
       <c r="AF4" t="s">
-        <v>562</v>
+        <v>472</v>
       </c>
       <c r="AG4" t="s">
-        <v>564</v>
+        <v>474</v>
       </c>
       <c r="AH4" t="s">
-        <v>565</v>
+        <v>475</v>
       </c>
       <c r="AI4" t="s">
-        <v>566</v>
+        <v>476</v>
       </c>
       <c r="AJ4" t="s">
-        <v>569</v>
+        <v>479</v>
       </c>
       <c r="AK4" t="s">
-        <v>570</v>
+        <v>480</v>
       </c>
       <c r="AL4" t="s">
-        <v>571</v>
+        <v>481</v>
       </c>
       <c r="AM4" t="s">
-        <v>572</v>
+        <v>482</v>
       </c>
       <c r="AN4" t="s">
-        <v>573</v>
+        <v>483</v>
       </c>
       <c r="AO4" t="s">
-        <v>575</v>
+        <v>485</v>
       </c>
       <c r="AP4" t="s">
-        <v>576</v>
+        <v>486</v>
       </c>
       <c r="AQ4" t="s">
-        <v>577</v>
+        <v>487</v>
       </c>
       <c r="AR4" t="s">
-        <v>578</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.2">
@@ -3707,19 +3054,19 @@
     </row>
     <row r="6" spans="1:44" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>676</v>
+        <v>586</v>
       </c>
       <c r="K6" t="s">
-        <v>677</v>
+        <v>587</v>
       </c>
       <c r="M6" t="s">
-        <v>678</v>
+        <v>588</v>
       </c>
       <c r="AA6" s="7" t="s">
-        <v>679</v>
+        <v>589</v>
       </c>
       <c r="AC6" t="s">
-        <v>558</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -3727,7 +3074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
@@ -3756,34 +3103,34 @@
         <v>245</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>437</v>
+        <v>347</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>440</v>
+        <v>350</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>443</v>
+        <v>353</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>447</v>
+        <v>357</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>451</v>
+        <v>361</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>584</v>
+        <v>494</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>100</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>587</v>
+        <v>497</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>590</v>
+        <v>500</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>594</v>
+        <v>504</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>100</v>
@@ -3794,48 +3141,48 @@
         <v>246</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>438</v>
+        <v>348</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>441</v>
+        <v>351</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>444</v>
+        <v>354</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>448</v>
+        <v>358</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>452</v>
+        <v>362</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>585</v>
+        <v>495</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>586</v>
+        <v>496</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>588</v>
+        <v>498</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>595</v>
+        <v>505</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>596</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>445</v>
+        <v>355</v>
       </c>
       <c r="E3" t="s">
-        <v>449</v>
+        <v>359</v>
       </c>
       <c r="J3" t="s">
-        <v>592</v>
+        <v>502</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -3843,37 +3190,37 @@
         <v>345</v>
       </c>
       <c r="B4" t="s">
-        <v>579</v>
+        <v>489</v>
       </c>
       <c r="C4" t="s">
-        <v>580</v>
+        <v>490</v>
       </c>
       <c r="D4" t="s">
-        <v>581</v>
+        <v>491</v>
       </c>
       <c r="E4" t="s">
-        <v>582</v>
+        <v>492</v>
       </c>
       <c r="F4" t="s">
-        <v>583</v>
+        <v>493</v>
       </c>
       <c r="G4" t="s">
-        <v>585</v>
+        <v>495</v>
       </c>
       <c r="H4" t="s">
-        <v>586</v>
+        <v>496</v>
       </c>
       <c r="I4" t="s">
-        <v>589</v>
+        <v>499</v>
       </c>
       <c r="J4" t="s">
-        <v>593</v>
+        <v>503</v>
       </c>
       <c r="K4" t="s">
-        <v>595</v>
+        <v>505</v>
       </c>
       <c r="L4" t="s">
-        <v>596</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -3883,16 +3230,16 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>680</v>
+        <v>590</v>
       </c>
       <c r="G6" t="s">
-        <v>681</v>
+        <v>591</v>
       </c>
       <c r="J6" t="s">
+        <v>502</v>
+      </c>
+      <c r="K6" t="s">
         <v>592</v>
-      </c>
-      <c r="K6" t="s">
-        <v>682</v>
       </c>
     </row>
   </sheetData>
@@ -3900,7 +3247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:P5"/>
   <sheetViews>
@@ -3931,46 +3278,46 @@
         <v>245</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>437</v>
+        <v>347</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>440</v>
+        <v>350</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>443</v>
+        <v>353</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>447</v>
+        <v>357</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>451</v>
+        <v>361</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>603</v>
+        <v>513</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>606</v>
+        <v>516</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>609</v>
+        <v>519</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>612</v>
+        <v>522</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>615</v>
+        <v>525</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>618</v>
+        <v>528</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>621</v>
+        <v>531</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>624</v>
+        <v>534</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>454</v>
+        <v>364</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>100</v>
@@ -3981,107 +3328,107 @@
         <v>246</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>438</v>
+        <v>348</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>441</v>
+        <v>351</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>444</v>
+        <v>354</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>448</v>
+        <v>358</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>452</v>
+        <v>362</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>604</v>
+        <v>514</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>607</v>
+        <v>517</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>610</v>
+        <v>520</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>613</v>
+        <v>523</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>616</v>
+        <v>526</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>619</v>
+        <v>529</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>622</v>
+        <v>532</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>625</v>
+        <v>535</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>627</v>
+        <v>537</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>628</v>
+        <v>538</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>445</v>
+        <v>355</v>
       </c>
       <c r="E3" t="s">
-        <v>449</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>597</v>
+        <v>507</v>
       </c>
       <c r="B4" t="s">
-        <v>598</v>
+        <v>508</v>
       </c>
       <c r="C4" t="s">
-        <v>599</v>
+        <v>509</v>
       </c>
       <c r="D4" t="s">
-        <v>600</v>
+        <v>510</v>
       </c>
       <c r="E4" t="s">
-        <v>601</v>
+        <v>511</v>
       </c>
       <c r="F4" t="s">
-        <v>602</v>
+        <v>512</v>
       </c>
       <c r="G4" t="s">
-        <v>605</v>
+        <v>515</v>
       </c>
       <c r="H4" t="s">
-        <v>608</v>
+        <v>518</v>
       </c>
       <c r="I4" t="s">
-        <v>611</v>
+        <v>521</v>
       </c>
       <c r="J4" t="s">
-        <v>614</v>
+        <v>524</v>
       </c>
       <c r="K4" t="s">
-        <v>617</v>
+        <v>527</v>
       </c>
       <c r="L4" t="s">
-        <v>620</v>
+        <v>530</v>
       </c>
       <c r="M4" t="s">
-        <v>623</v>
+        <v>533</v>
       </c>
       <c r="N4" t="s">
-        <v>626</v>
+        <v>536</v>
       </c>
       <c r="O4" t="s">
-        <v>627</v>
+        <v>537</v>
       </c>
       <c r="P4" t="s">
-        <v>628</v>
+        <v>538</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -4094,7 +3441,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:A27"/>
   <sheetViews>
@@ -4104,137 +3451,137 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>629</v>
+        <v>539</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>630</v>
+        <v>540</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>631</v>
+        <v>541</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>632</v>
+        <v>542</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>633</v>
+        <v>543</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>634</v>
+        <v>544</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>635</v>
+        <v>545</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>636</v>
+        <v>546</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>637</v>
+        <v>547</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>638</v>
+        <v>548</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>639</v>
+        <v>549</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>640</v>
+        <v>550</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>641</v>
+        <v>551</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>642</v>
+        <v>552</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>643</v>
+        <v>553</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>644</v>
+        <v>554</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>645</v>
+        <v>555</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>646</v>
+        <v>556</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>647</v>
+        <v>557</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>648</v>
+        <v>558</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>649</v>
+        <v>559</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>650</v>
+        <v>560</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>651</v>
+        <v>561</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>652</v>
+        <v>562</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>653</v>
+        <v>563</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>654</v>
+        <v>564</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>655</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>
@@ -4382,13 +3729,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>659</v>
+        <v>569</v>
       </c>
       <c r="B6" t="s">
-        <v>660</v>
+        <v>570</v>
       </c>
       <c r="H6" t="s">
-        <v>656</v>
+        <v>566</v>
       </c>
     </row>
   </sheetData>
@@ -4500,8 +3847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AV6"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AS6" sqref="AS6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4999,22 +4346,28 @@
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>661</v>
+        <v>571</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>662</v>
+        <v>572</v>
       </c>
       <c r="D6" s="5">
         <v>9606</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>592</v>
+        <v>502</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>663</v>
+        <v>573</v>
       </c>
       <c r="Z6" s="6" t="s">
-        <v>664</v>
+        <v>574</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>502</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>593</v>
       </c>
     </row>
   </sheetData>
@@ -5027,7 +4380,7 @@
   <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5225,10 +4578,10 @@
         <v>211</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>671</v>
+        <v>581</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>672</v>
+        <v>582</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>82</v>
@@ -5337,10 +4690,10 @@
         <v>212</v>
       </c>
       <c r="R4" t="s">
-        <v>671</v>
+        <v>581</v>
       </c>
       <c r="S4" t="s">
-        <v>672</v>
+        <v>582</v>
       </c>
       <c r="T4" t="s">
         <v>213</v>
@@ -5398,31 +4751,31 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>665</v>
+        <v>575</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>661</v>
+        <v>571</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>666</v>
+        <v>576</v>
       </c>
       <c r="E6" s="5">
         <v>9606</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>664</v>
+        <v>574</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>668</v>
+        <v>578</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>669</v>
+        <v>579</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>673</v>
+        <v>583</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>667</v>
+        <v>577</v>
       </c>
     </row>
   </sheetData>
@@ -5434,8 +4787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AE6"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AE6" sqref="AE6"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5776,13 +5129,16 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>670</v>
+        <v>580</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>665</v>
+        <v>575</v>
+      </c>
+      <c r="E6" s="5">
+        <v>9606</v>
       </c>
       <c r="AE6" t="s">
-        <v>674</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -5986,345 +5342,183 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:AE5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" customWidth="1"/>
-    <col min="12" max="12" width="44.6640625" customWidth="1"/>
-    <col min="13" max="13" width="48.6640625" customWidth="1"/>
-    <col min="14" max="14" width="61.6640625" customWidth="1"/>
-    <col min="15" max="15" width="21.6640625" customWidth="1"/>
-    <col min="16" max="16" width="60.6640625" customWidth="1"/>
-    <col min="17" max="17" width="16.6640625" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" customWidth="1"/>
-    <col min="19" max="19" width="13.6640625" customWidth="1"/>
-    <col min="20" max="20" width="25.6640625" customWidth="1"/>
-    <col min="21" max="21" width="26.6640625" customWidth="1"/>
-    <col min="22" max="22" width="14.6640625" customWidth="1"/>
-    <col min="23" max="23" width="27.6640625" customWidth="1"/>
-    <col min="24" max="24" width="31.6640625" customWidth="1"/>
-    <col min="25" max="25" width="29.6640625" customWidth="1"/>
-    <col min="26" max="26" width="33.6640625" customWidth="1"/>
-    <col min="27" max="27" width="12.6640625" customWidth="1"/>
-    <col min="28" max="28" width="31.6640625" customWidth="1"/>
-    <col min="29" max="29" width="35.6640625" customWidth="1"/>
-    <col min="30" max="30" width="13.6640625" customWidth="1"/>
-    <col min="31" max="31" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="42.6640625" customWidth="1"/>
+    <col min="8" max="8" width="46.6640625" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="62.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="360" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="165" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>245</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>347</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>350</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>353</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>357</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>361</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>364</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>92</v>
+        <v>367</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>258</v>
+        <v>371</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>171</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="L1" s="1"/>
       <c r="M1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD1" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="N1" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>246</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>73</v>
+        <v>348</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>351</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>82</v>
+        <v>358</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>23</v>
+        <v>362</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>365</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>90</v>
+        <v>366</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>93</v>
+        <v>368</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>259</v>
+        <v>346</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>357</v>
+        <v>375</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>378</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>358</v>
+        <v>381</v>
       </c>
       <c r="N2" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E3" t="s">
         <v>359</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="W2" s="2" t="s">
+      <c r="I3" t="s">
+        <v>369</v>
+      </c>
+      <c r="J3" t="s">
+        <v>372</v>
+      </c>
+      <c r="K3" t="s">
+        <v>376</v>
+      </c>
+      <c r="M3" t="s">
+        <v>382</v>
+      </c>
+      <c r="N3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C4" t="s">
+        <v>352</v>
+      </c>
+      <c r="D4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E4" t="s">
+        <v>360</v>
+      </c>
+      <c r="F4" t="s">
+        <v>363</v>
+      </c>
+      <c r="G4" t="s">
+        <v>365</v>
+      </c>
+      <c r="H4" t="s">
+        <v>366</v>
+      </c>
+      <c r="I4" t="s">
         <v>370</v>
       </c>
-      <c r="X2" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="Z2" s="3" t="s">
+      <c r="J4" t="s">
         <v>373</v>
       </c>
-      <c r="AA2" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="AC2" s="3" t="s">
+      <c r="K4" t="s">
+        <v>377</v>
+      </c>
+      <c r="L4" t="s">
         <v>379</v>
       </c>
-      <c r="AD2" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="S3" t="s">
-        <v>281</v>
-      </c>
-      <c r="T3" t="s">
-        <v>285</v>
-      </c>
-      <c r="U3" t="s">
-        <v>289</v>
-      </c>
-      <c r="V3" t="s">
-        <v>293</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>346</v>
-      </c>
-      <c r="B4" t="s">
-        <v>347</v>
-      </c>
-      <c r="C4" t="s">
-        <v>348</v>
-      </c>
-      <c r="D4" t="s">
-        <v>349</v>
-      </c>
-      <c r="E4" t="s">
-        <v>350</v>
-      </c>
-      <c r="F4" t="s">
-        <v>351</v>
-      </c>
-      <c r="G4" t="s">
-        <v>352</v>
-      </c>
-      <c r="H4" t="s">
-        <v>353</v>
-      </c>
-      <c r="I4" t="s">
-        <v>354</v>
-      </c>
-      <c r="J4" t="s">
-        <v>355</v>
-      </c>
-      <c r="K4" t="s">
-        <v>356</v>
-      </c>
-      <c r="L4" t="s">
-        <v>357</v>
-      </c>
       <c r="M4" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="N4" t="s">
-        <v>360</v>
-      </c>
-      <c r="O4" t="s">
-        <v>361</v>
-      </c>
-      <c r="P4" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>364</v>
-      </c>
-      <c r="R4" t="s">
-        <v>365</v>
-      </c>
-      <c r="S4" t="s">
-        <v>366</v>
-      </c>
-      <c r="T4" t="s">
-        <v>367</v>
-      </c>
-      <c r="U4" t="s">
-        <v>368</v>
-      </c>
-      <c r="V4" t="s">
-        <v>369</v>
-      </c>
-      <c r="W4" t="s">
-        <v>370</v>
-      </c>
-      <c r="X4" t="s">
-        <v>371</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>372</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>373</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>377</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>378</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>379</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>382</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -6335,367 +5529,184 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AP5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" customWidth="1"/>
-    <col min="10" max="10" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="46.6640625" customWidth="1"/>
+    <col min="8" max="8" width="50.6640625" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
     <col min="11" max="11" width="14.6640625" customWidth="1"/>
-    <col min="12" max="12" width="34.6640625" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" customWidth="1"/>
-    <col min="14" max="14" width="25.6640625" customWidth="1"/>
-    <col min="15" max="15" width="29.6640625" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" customWidth="1"/>
-    <col min="18" max="18" width="16.6640625" customWidth="1"/>
-    <col min="19" max="19" width="45.6640625" customWidth="1"/>
-    <col min="20" max="20" width="49.6640625" customWidth="1"/>
-    <col min="21" max="21" width="62.6640625" customWidth="1"/>
-    <col min="22" max="22" width="21.6640625" customWidth="1"/>
-    <col min="23" max="23" width="61.6640625" customWidth="1"/>
-    <col min="24" max="24" width="16.6640625" customWidth="1"/>
-    <col min="25" max="25" width="14.6640625" customWidth="1"/>
-    <col min="26" max="26" width="13.6640625" customWidth="1"/>
-    <col min="27" max="27" width="25.6640625" customWidth="1"/>
-    <col min="28" max="28" width="26.6640625" customWidth="1"/>
-    <col min="29" max="29" width="14.6640625" customWidth="1"/>
-    <col min="30" max="30" width="24.6640625" customWidth="1"/>
-    <col min="31" max="31" width="28.6640625" customWidth="1"/>
-    <col min="32" max="32" width="16.6640625" customWidth="1"/>
-    <col min="33" max="33" width="22.6640625" customWidth="1"/>
-    <col min="34" max="34" width="26.6640625" customWidth="1"/>
-    <col min="35" max="35" width="28.6640625" customWidth="1"/>
-    <col min="36" max="36" width="32.6640625" customWidth="1"/>
-    <col min="37" max="37" width="7.6640625" customWidth="1"/>
-    <col min="38" max="38" width="17.6640625" customWidth="1"/>
-    <col min="39" max="39" width="3.6640625" customWidth="1"/>
-    <col min="40" max="40" width="4.6640625" customWidth="1"/>
-    <col min="41" max="41" width="15.6640625" customWidth="1"/>
-    <col min="42" max="42" width="10.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="64.6640625" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="360" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="165" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>245</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>347</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>350</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>353</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>357</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>361</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>364</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J1" s="1"/>
+        <v>395</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>367</v>
+      </c>
       <c r="K1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="I2" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E3" t="s">
+        <v>359</v>
+      </c>
+      <c r="J3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K3" t="s">
+        <v>372</v>
+      </c>
+      <c r="L3" t="s">
+        <v>376</v>
+      </c>
+      <c r="N3" t="s">
+        <v>382</v>
+      </c>
+      <c r="O3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C4" t="s">
+        <v>389</v>
+      </c>
+      <c r="D4" t="s">
+        <v>390</v>
+      </c>
+      <c r="E4" t="s">
+        <v>391</v>
+      </c>
+      <c r="F4" t="s">
+        <v>392</v>
+      </c>
+      <c r="G4" t="s">
+        <v>393</v>
+      </c>
+      <c r="H4" t="s">
+        <v>394</v>
+      </c>
+      <c r="I4" t="s">
+        <v>397</v>
+      </c>
+      <c r="J4" t="s">
+        <v>398</v>
+      </c>
+      <c r="K4" t="s">
         <v>399</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="L4" t="s">
+        <v>400</v>
+      </c>
+      <c r="M4" t="s">
         <v>402</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="Z3" t="s">
-        <v>281</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>285</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>293</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>383</v>
-      </c>
-      <c r="B4" t="s">
-        <v>384</v>
-      </c>
-      <c r="C4" t="s">
-        <v>385</v>
-      </c>
-      <c r="D4" t="s">
-        <v>386</v>
-      </c>
-      <c r="E4" t="s">
-        <v>387</v>
-      </c>
-      <c r="F4" t="s">
-        <v>388</v>
-      </c>
-      <c r="G4" t="s">
-        <v>389</v>
-      </c>
-      <c r="H4" t="s">
-        <v>390</v>
-      </c>
-      <c r="I4" t="s">
-        <v>391</v>
-      </c>
-      <c r="J4" t="s">
-        <v>393</v>
-      </c>
-      <c r="K4" t="s">
-        <v>396</v>
-      </c>
-      <c r="L4" t="s">
-        <v>398</v>
-      </c>
-      <c r="M4" t="s">
-        <v>401</v>
       </c>
       <c r="N4" t="s">
         <v>403</v>
@@ -6703,89 +5714,8 @@
       <c r="O4" t="s">
         <v>404</v>
       </c>
-      <c r="P4" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>408</v>
-      </c>
-      <c r="R4" t="s">
-        <v>409</v>
-      </c>
-      <c r="S4" t="s">
-        <v>410</v>
-      </c>
-      <c r="T4" t="s">
-        <v>411</v>
-      </c>
-      <c r="U4" t="s">
-        <v>413</v>
-      </c>
-      <c r="V4" t="s">
-        <v>414</v>
-      </c>
-      <c r="W4" t="s">
-        <v>416</v>
-      </c>
-      <c r="X4" t="s">
-        <v>417</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>418</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>419</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>420</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>421</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>422</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>423</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>424</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>427</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>428</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>429</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>430</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>431</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>432</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>433</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>434</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>435</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>436</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
